--- a/Document/Audio Offset.xlsx
+++ b/Document/Audio Offset.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\156607\Amkor_Project\MoldOffsetRecord\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6246C0CF-0333-4732-BE62-D7FEDF202244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7230"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sheet" sheetId="1" r:id="rId1"/>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -118,14 +119,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -413,12 +411,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -426,117 +422,70 @@
     <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1">
+        <v>9</v>
+      </c>
+      <c r="K4" s="1">
+        <v>10</v>
+      </c>
+      <c r="L4" s="1">
+        <v>11</v>
+      </c>
+      <c r="M4" s="1">
+        <v>12</v>
+      </c>
+      <c r="N4" s="1">
+        <v>13</v>
+      </c>
+      <c r="O4" s="1">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1">
-        <v>6</v>
-      </c>
-      <c r="H3" s="1">
-        <v>7</v>
-      </c>
-      <c r="I3" s="1">
-        <v>8</v>
-      </c>
-      <c r="J3" s="1">
-        <v>9</v>
-      </c>
-      <c r="K3" s="1">
-        <v>10</v>
-      </c>
-      <c r="L3" s="1">
-        <v>11</v>
-      </c>
-      <c r="M3" s="1">
-        <v>12</v>
-      </c>
-      <c r="N3" s="1">
-        <v>13</v>
-      </c>
-      <c r="O3" s="1">
-        <v>14</v>
-      </c>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -552,7 +501,25 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
